--- a/data/flight_dataset_description.xlsx
+++ b/data/flight_dataset_description.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flight-delay-analysis-py\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flight-app-shiny-r\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Column Name</t>
   </si>
@@ -829,119 +829,49 @@
     <t>Airline</t>
   </si>
   <si>
-    <t>List box</t>
-  </si>
-  <si>
-    <t>All carriers, …</t>
-  </si>
-  <si>
     <t>Flight Status</t>
   </si>
   <si>
-    <t>All flights, On-time, Delayed, Cancelled, Diverted</t>
-  </si>
-  <si>
-    <t>Date Range</t>
-  </si>
-  <si>
-    <t>All dates, Latest month, Latest 3 months, Latest 6 months, Last year</t>
-  </si>
-  <si>
-    <t>Flight Distance Category</t>
-  </si>
-  <si>
-    <t>All Distances, Short-haul (&lt;500 miles), Medium-haul (500-150 miles), Long-haul (&gt;1500 miles)</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Total Flights</t>
-  </si>
-  <si>
-    <t>By Airline</t>
-  </si>
-  <si>
-    <t>By Status</t>
-  </si>
-  <si>
-    <t>By Date Range</t>
-  </si>
-  <si>
-    <t>By Flight Distance Category</t>
-  </si>
-  <si>
-    <t>Avg Arrival Delay (min)</t>
-  </si>
-  <si>
-    <t>Cancellation Rate</t>
-  </si>
-  <si>
-    <t>Avg Distance (miles)</t>
-  </si>
-  <si>
-    <t>On-Time Rate</t>
-  </si>
-  <si>
-    <t>Delay Rate</t>
-  </si>
-  <si>
-    <t>Departure and Arrival Delays Over Time</t>
-  </si>
-  <si>
-    <t>Delay Type</t>
-  </si>
-  <si>
-    <t>Departure Delay
-Arrival Delay</t>
-  </si>
-  <si>
-    <t>Time Interval
-Day, Week, Month, Quarter</t>
-  </si>
-  <si>
-    <t>Aggregation Method
-Mean, Median, Max</t>
-  </si>
-  <si>
-    <t>Cancellation Rate by Airline</t>
-  </si>
-  <si>
-    <t>Show</t>
-  </si>
-  <si>
-    <t>Top 10, 15, All</t>
-  </si>
-  <si>
-    <t>Delay Causes Breakdown</t>
-  </si>
-  <si>
-    <t>Cause type</t>
-  </si>
-  <si>
-    <t>(Carrier, Weather, NAS, Security, Late Aircraft)</t>
-  </si>
-  <si>
-    <t>Shows total delay minutes or count of delayed flights.</t>
-  </si>
-  <si>
-    <t>Route Performance: Distance vs Average Delay</t>
-  </si>
-  <si>
-    <t>Scatter plot showing the relationship between flight distance and average arrival delay for the top 100 routes by flight frequency. Each point represents an origin-destination pair.</t>
-  </si>
-  <si>
-    <t>Airline On-Time Performance Comparison</t>
-  </si>
-  <si>
-    <t>Chart 1 Airline:</t>
-  </si>
-  <si>
-    <t>Chart 2 Airline:</t>
-  </si>
-  <si>
-    <t>Y-Axis Range:
-Shared, Individual</t>
+    <t>Route Filter</t>
+  </si>
+  <si>
+    <t>Origin City</t>
+  </si>
+  <si>
+    <t>Destination City</t>
+  </si>
+  <si>
+    <t>Data Filter</t>
+  </si>
+  <si>
+    <t>Date range</t>
+  </si>
+  <si>
+    <t>Operational flight filter</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Departure delay (hr)</t>
+  </si>
+  <si>
+    <t>Arrival delay (hr)</t>
+  </si>
+  <si>
+    <t>delay type</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>cancellation type</t>
+  </si>
+  <si>
+    <t>Diverted</t>
+  </si>
+  <si>
+    <t>No filter</t>
   </si>
 </sst>
 </file>
@@ -1121,6 +1051,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,13 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1800,10 +1730,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -1811,36 +1741,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1848,36 +1778,36 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1885,29 +1815,29 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1915,31 +1845,31 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1947,64 +1877,64 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2012,31 +1942,31 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -2044,22 +1974,22 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -2067,22 +1997,22 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2090,17 +2020,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -2108,22 +2038,22 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2131,29 +2061,29 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -2161,15 +2091,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2177,20 +2107,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="6" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A1:A18"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
@@ -2202,6 +2126,12 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2210,178 +2140,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A13:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="C21" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/flight_dataset_description.xlsx
+++ b/data/flight_dataset_description.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Column Name</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>No filter</t>
+  </si>
+  <si>
+    <t>(Select one)</t>
   </si>
 </sst>
 </file>
@@ -2140,39 +2143,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:C22"/>
+  <dimension ref="A13:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>144</v>
       </c>

--- a/data/flight_dataset_description.xlsx
+++ b/data/flight_dataset_description.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Column Name</t>
   </si>
@@ -874,14 +874,111 @@
     <t>No filter</t>
   </si>
   <si>
-    <t>(Select one)</t>
+    <t>Flights per Year, Quarter, Month, Day of Week</t>
+  </si>
+  <si>
+    <t>Top 10 busiest routes</t>
+  </si>
+  <si>
+    <t>Top 10 busiest airports</t>
+  </si>
+  <si>
+    <t>Flight Overview</t>
+  </si>
+  <si>
+    <t>Delay Analysis</t>
+  </si>
+  <si>
+    <t>Distribution of Arrival Delay</t>
+  </si>
+  <si>
+    <t>Distribution of Departure Delay</t>
+  </si>
+  <si>
+    <t>Average Departure Delay by Hour (heatmap or line chart)</t>
+  </si>
+  <si>
+    <t>Average Delay by Season (global)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Average Delay by Season — </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by Airline</t>
+    </r>
+  </si>
+  <si>
+    <t>Delay reasons breakdown (Carrier, Weather, NAS, Security, Late Aircraft)</t>
+  </si>
+  <si>
+    <t>Top airlines with highest delay rate</t>
+  </si>
+  <si>
+    <t>Top airports with highest delay rate</t>
+  </si>
+  <si>
+    <t>Top routes with highest average delay</t>
+  </si>
+  <si>
+    <t>Airline Analysis</t>
+  </si>
+  <si>
+    <t>Top 10 airlines by number of flights</t>
+  </si>
+  <si>
+    <t>Growth rate of an airline vs industry</t>
+  </si>
+  <si>
+    <t>Market share over time</t>
+  </si>
+  <si>
+    <t>Airline on-time vs delayed vs cancelled distribution</t>
+  </si>
+  <si>
+    <t>Top 10 routes của từng hãng (sortable top_n)</t>
+  </si>
+  <si>
+    <t>Route performance of airline (avg delay, cancel rate)</t>
+  </si>
+  <si>
+    <t>Airport / Route Analysis</t>
+  </si>
+  <si>
+    <t>Top 10 busiest airports (counts)</t>
+  </si>
+  <si>
+    <t>Airport growth over years vs industry</t>
+  </si>
+  <si>
+    <t>Most common routes (industry-wide)</t>
+  </si>
+  <si>
+    <t>Top {top_n} busiest routes for selected airline/airport</t>
+  </si>
+  <si>
+    <t>Top cancelled routes</t>
+  </si>
+  <si>
+    <t>Top delayed routes</t>
+  </si>
+  <si>
+    <t>Route performance metrics (avg delay, cancel rate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,6 +1012,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1054,12 +1159,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1069,7 +1168,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1733,10 +1838,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -1744,36 +1849,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1781,36 +1886,36 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1818,29 +1923,29 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1848,31 +1953,31 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1880,64 +1985,64 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -1945,31 +2050,31 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -1977,22 +2082,22 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -2000,22 +2105,22 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2023,17 +2128,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -2041,22 +2146,22 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2064,29 +2169,29 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -2094,15 +2199,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2110,14 +2215,20 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="6" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A1:A18"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
@@ -2129,12 +2240,6 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2143,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:D22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2154,79 +2259,194 @@
     <col min="1" max="1" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="13"/>
+    <col min="4" max="4" width="20.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B1" s="14" t="s">
         <v>139</v>
       </c>
+      <c r="D1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>154</v>
+        <v>169</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/flight_dataset_description.xlsx
+++ b/data/flight_dataset_description.xlsx
@@ -1159,6 +1159,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1168,13 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1838,10 +1838,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -1849,36 +1849,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1886,36 +1886,36 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1923,29 +1923,29 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1953,31 +1953,31 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1985,64 +1985,64 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2050,31 +2050,31 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -2082,22 +2082,22 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -2105,22 +2105,22 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2128,17 +2128,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -2146,22 +2146,22 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2169,29 +2169,29 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -2199,15 +2199,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2215,20 +2215,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="6" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A1:A18"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
@@ -2240,6 +2234,12 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2250,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/flight_dataset_description.xlsx
+++ b/data/flight_dataset_description.xlsx
@@ -1106,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1159,12 +1159,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,8 +1168,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1838,10 +1841,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -1849,36 +1852,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1886,36 +1889,36 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1923,29 +1926,29 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1953,31 +1956,31 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1985,64 +1988,64 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2050,31 +2053,31 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -2082,22 +2085,22 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -2105,22 +2108,22 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2128,17 +2131,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -2146,22 +2149,22 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2169,29 +2172,29 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -2199,15 +2202,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2215,14 +2218,20 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="6" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A1:A18"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
@@ -2234,12 +2243,6 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2250,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E25"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,7 +2274,7 @@
       <c r="B1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="24" t="s">
         <v>158</v>
       </c>
       <c r="E1" s="13" t="s">
